--- a/persistent.classified.timeseries.aquatic.otus.rna.present.atl.once.xlsx
+++ b/persistent.classified.timeseries.aquatic.otus.rna.present.atl.once.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Otu00014</t>
+          <t>Otu00011</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Otu00017</t>
+          <t>Otu00014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Otu00020</t>
+          <t>Otu00017</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Otu00024</t>
+          <t>Otu00020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Otu00029</t>
+          <t>Otu00024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Otu00034</t>
+          <t>Otu00029</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Otu00038</t>
+          <t>Otu00034</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Otu00047</t>
+          <t>Otu00038</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Otu00056</t>
+          <t>Otu00047</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Otu00062</t>
+          <t>Otu00056</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Otu00067</t>
+          <t>Otu00062</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Otu00073</t>
+          <t>Otu00067</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -564,10 +564,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Otu00073</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>persistent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Otu00219</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>persistent</t>
         </is>
